--- a/cypress/downloads/UMH_Master.xlsx
+++ b/cypress/downloads/UMH_Master.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>Line</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>Kav</t>
   </si>
   <si>
     <t>Code 10</t>
@@ -41,13 +41,10 @@
     <t>Charge</t>
   </si>
   <si>
-    <t>214Y</t>
-  </si>
-  <si>
-    <t>114A</t>
-  </si>
-  <si>
-    <t>RY0A</t>
+    <t>114C</t>
+  </si>
+  <si>
+    <t>RY0C</t>
   </si>
   <si>
     <t>BC4C</t>
@@ -56,43 +53,43 @@
     <t>K14U</t>
   </si>
   <si>
-    <t>AH-40</t>
+    <t>CH-40</t>
   </si>
   <si>
     <t>CUB</t>
   </si>
   <si>
-    <t>ATV</t>
-  </si>
-  <si>
-    <t>142A</t>
-  </si>
-  <si>
-    <t>468A</t>
-  </si>
-  <si>
-    <t>321A</t>
-  </si>
-  <si>
-    <t>537A</t>
-  </si>
-  <si>
-    <t>836A</t>
-  </si>
-  <si>
-    <t>566A</t>
-  </si>
-  <si>
-    <t>561A</t>
-  </si>
-  <si>
-    <t>900A</t>
-  </si>
-  <si>
-    <t>772A</t>
-  </si>
-  <si>
-    <t>445A</t>
+    <t>CTV</t>
+  </si>
+  <si>
+    <t>142C</t>
+  </si>
+  <si>
+    <t>468C</t>
+  </si>
+  <si>
+    <t>321C</t>
+  </si>
+  <si>
+    <t>537C</t>
+  </si>
+  <si>
+    <t>836C</t>
+  </si>
+  <si>
+    <t>566C</t>
+  </si>
+  <si>
+    <t>561C</t>
+  </si>
+  <si>
+    <t>900C</t>
+  </si>
+  <si>
+    <t>772C</t>
+  </si>
+  <si>
+    <t>445C</t>
   </si>
 </sst>
 </file>
@@ -442,7 +439,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:H1"/>
@@ -491,16 +488,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.001</v>
+        <v>0.0026669638242894</v>
       </c>
       <c r="C2">
-        <v>0.0021</v>
+        <v>5.6410256410256E-5</v>
       </c>
       <c r="D2">
-        <v>0.0031</v>
+        <v>0.00031814102564103</v>
       </c>
       <c r="H2">
-        <v>2.22</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -508,16 +505,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0026669638242894</v>
+        <v>0.0017142816091954</v>
       </c>
       <c r="C3">
+        <v>0.00090192528735632</v>
+      </c>
+      <c r="D3">
         <v>5.6410256410256E-5</v>
       </c>
-      <c r="D3">
-        <v>0.00031814102564103</v>
-      </c>
       <c r="H3">
-        <v>22.26</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -525,13 +522,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0017142816091954</v>
+        <v>0.00046939814814815</v>
       </c>
       <c r="C4">
+        <v>0.000173875</v>
+      </c>
+      <c r="D4">
         <v>0.00090192528735632</v>
-      </c>
-      <c r="D4">
-        <v>5.6410256410256E-5</v>
       </c>
       <c r="H4">
         <v>22.16</v>
@@ -545,10 +542,10 @@
         <v>0.00046939814814815</v>
       </c>
       <c r="C5">
+        <v>0.0019058756218905</v>
+      </c>
+      <c r="D5">
         <v>0.000173875</v>
-      </c>
-      <c r="D5">
-        <v>0.00090192528735632</v>
       </c>
       <c r="H5">
         <v>22.16</v>
@@ -559,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B6">
+        <v>0.0020484848484848</v>
+      </c>
+      <c r="C6">
         <v>0.00046939814814815</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.0019058756218905</v>
-      </c>
-      <c r="D6">
-        <v>0.000173875</v>
       </c>
       <c r="H6">
         <v>22.16</v>
@@ -576,13 +573,13 @@
         <v>13</v>
       </c>
       <c r="B7">
+        <v>0.000983057179987</v>
+      </c>
+      <c r="C7">
         <v>0.0020484848484848</v>
       </c>
-      <c r="C7">
-        <v>0.00046939814814815</v>
-      </c>
       <c r="D7">
-        <v>0.0019058756218905</v>
+        <v>0.00079897435897436</v>
       </c>
       <c r="H7">
         <v>22.16</v>
@@ -593,13 +590,13 @@
         <v>14</v>
       </c>
       <c r="B8">
+        <v>0.00082587356321839</v>
+      </c>
+      <c r="C8">
         <v>0.000983057179987</v>
       </c>
-      <c r="C8">
-        <v>0.0020484848484848</v>
-      </c>
       <c r="D8">
-        <v>0.00079897435897436</v>
+        <v>0.00064284482758621</v>
       </c>
       <c r="H8">
         <v>22.16</v>
@@ -610,16 +607,16 @@
         <v>15</v>
       </c>
       <c r="B9">
+        <v>0.00080203703703704</v>
+      </c>
+      <c r="C9">
         <v>0.00082587356321839</v>
       </c>
-      <c r="C9">
-        <v>0.000983057179987</v>
-      </c>
       <c r="D9">
-        <v>0.00064284482758621</v>
+        <v>0.000681875</v>
       </c>
       <c r="H9">
-        <v>22.16</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -630,10 +627,10 @@
         <v>0.00080203703703704</v>
       </c>
       <c r="C10">
-        <v>0.00082587356321839</v>
+        <v>0.00080203703703704</v>
       </c>
       <c r="D10">
-        <v>0.000681875</v>
+        <v>0.00080017289073306</v>
       </c>
       <c r="H10">
         <v>7.17</v>
@@ -644,16 +641,16 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.00080203703703704</v>
+        <v>8.3541666666667E-5</v>
       </c>
       <c r="C11">
         <v>0.00080203703703704</v>
       </c>
       <c r="D11">
-        <v>0.00080017289073306</v>
+        <v>0.00052363636363636</v>
       </c>
       <c r="H11">
-        <v>7.17</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -661,16 +658,16 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>8.3541666666667E-5</v>
+        <v>0.00080203703703704</v>
       </c>
       <c r="C12">
-        <v>0.00080203703703704</v>
+        <v>0.0007261273554256</v>
       </c>
       <c r="D12">
-        <v>0.00052363636363636</v>
+        <v>0.000983057179987</v>
       </c>
       <c r="H12">
-        <v>15.99</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -681,10 +678,10 @@
         <v>0.00080203703703704</v>
       </c>
       <c r="C13">
-        <v>0.0007261273554256</v>
+        <v>0.00074053167420814</v>
       </c>
       <c r="D13">
-        <v>0.000983057179987</v>
+        <v>0.0026832993966817</v>
       </c>
       <c r="H13">
         <v>22.16</v>
@@ -695,13 +692,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.00080203703703704</v>
+        <v>0.00089994949494949</v>
       </c>
       <c r="C14">
-        <v>0.00074053167420814</v>
+        <v>0.00080017289073306</v>
       </c>
       <c r="D14">
-        <v>0.0026832993966817</v>
+        <v>0.0034215663900415</v>
       </c>
       <c r="H14">
         <v>22.16</v>
@@ -712,13 +709,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.00089994949494949</v>
+        <v>0.00074053167420814</v>
       </c>
       <c r="C15">
-        <v>0.00080017289073306</v>
+        <v>0.0015857845528455</v>
       </c>
       <c r="D15">
-        <v>0.0034215663900415</v>
+        <v>0.0015857845528455</v>
       </c>
       <c r="H15">
         <v>22.16</v>
@@ -729,13 +726,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.00074053167420814</v>
+        <v>0.00080017289073306</v>
       </c>
       <c r="C16">
-        <v>0.0015857845528455</v>
+        <v>0.0015705064935065</v>
       </c>
       <c r="D16">
-        <v>0.0015857845528455</v>
+        <v>0.0015705064935065</v>
       </c>
       <c r="H16">
         <v>22.16</v>
@@ -746,13 +743,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.00080017289073306</v>
+        <v>0.0015857845528455</v>
       </c>
       <c r="C17">
-        <v>0.0015705064935065</v>
+        <v>0.00083623188405797</v>
       </c>
       <c r="D17">
-        <v>0.0015705064935065</v>
+        <v>0.00083623188405797</v>
       </c>
       <c r="H17">
         <v>22.16</v>
@@ -763,32 +760,15 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0015857845528455</v>
+        <v>0.00085691740412979</v>
       </c>
       <c r="C18">
-        <v>0.00083623188405797</v>
+        <v>0.0024049557522124</v>
       </c>
       <c r="D18">
-        <v>0.00083623188405797</v>
+        <v>0.0024049557522124</v>
       </c>
       <c r="H18">
-        <v>22.16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>0.00085691740412979</v>
-      </c>
-      <c r="C19">
-        <v>0.0024049557522124</v>
-      </c>
-      <c r="D19">
-        <v>0.0024049557522124</v>
-      </c>
-      <c r="H19">
         <v>22.16</v>
       </c>
     </row>
